--- a/work/lecture slides/01_offset.xlsx
+++ b/work/lecture slides/01_offset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture06/lecture slides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/work/lecture slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6008" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A93EBEF-EFF3-42EC-BB73-C7E5584D8864}"/>
+  <xr:revisionPtr revIDLastSave="6020" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A89CFD-A58E-419E-AA81-E84455E32DE8}"/>
   <bookViews>
-    <workbookView xWindow="-37590" yWindow="-120" windowWidth="37710" windowHeight="21840" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OFFSET" sheetId="28" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>Application: Dynamic dropdown list</t>
   </si>
   <si>
-    <t>Gabby</t>
-  </si>
-  <si>
     <t>We can use OFFSET to mimic the behavior of the table.</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabby </t>
   </si>
 </sst>
 </file>
@@ -823,22 +823,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585E852F-D0B4-4BEA-A43F-C6F32E2255BB}">
-  <dimension ref="B2:H83"/>
+  <dimension ref="B2:H87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.3046875" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -847,12 +847,12 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -861,47 +861,47 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
@@ -912,13 +912,13 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>44</v>
       </c>
@@ -938,7 +938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>23</v>
       </c>
@@ -958,7 +958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>35</v>
       </c>
@@ -978,7 +978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>30</v>
       </c>
@@ -998,7 +998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>36</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>45</v>
       </c>
@@ -1038,13 +1038,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="e">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B25)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>=OFFSET(B17;4;3;2;3)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" cm="1">
+        <f t="array" aca="1" ref="B25:D26" ca="1">OFFSET(B17,4,3,2,3)</f>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f ca="1"/>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <f ca="1"/>
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <f ca="1"/>
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <f ca="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1055,13 +1083,13 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
@@ -1078,45 +1106,75 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="e">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B41)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+        <v>=OFFSET(Table!A:A;1;0;COUNTA(Table!A:A)-1)</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" t="str" cm="1">
+        <f t="array" aca="1" ref="B41:B45" ca="1">OFFSET(Table!A:A,1,0,COUNTA(Table!A:A)-1)</f>
+        <v>Bob</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" t="str">
+        <f ca="1"/>
+        <v>Alice</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" t="str">
+        <f ca="1"/>
+        <v>Kendrick</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" t="str">
+        <f ca="1"/>
+        <v>Peter</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve">Gabby </v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1125,26 +1183,26 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" t="e">
         <f ca="1">_xlfn.FORMULATEXT(B57)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1153,13 +1211,13 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <v>44</v>
       </c>
@@ -1179,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>23</v>
       </c>
@@ -1199,7 +1257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>35</v>
       </c>
@@ -1219,7 +1277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>30</v>
       </c>
@@ -1239,7 +1297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>36</v>
       </c>
@@ -1259,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>45</v>
       </c>
@@ -1279,18 +1337,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" t="e">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B71)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+        <v>=INDEX(B63:G68;{5;6};{4\5\6})</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" cm="1">
+        <f t="array" ref="B71:D72">INDEX(B63:G68,{5;6},{4,5,6})</f>
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
         <v>44</v>
       </c>
@@ -1310,7 +1391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>23</v>
       </c>
@@ -1330,7 +1411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>35</v>
       </c>
@@ -1350,7 +1431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>30</v>
       </c>
@@ -1370,7 +1451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>36</v>
       </c>
@@ -1390,7 +1471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>45</v>
       </c>
@@ -1410,10 +1491,55 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" t="e">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B84)</f>
-        <v>#N/A</v>
+        <v>=INDEX(B76:G81;{2;3;5;6};{4\5\6})</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" cm="1">
+        <f t="array" ref="B84:D87">INDEX(B76:G81,{2;3;5;6},{4,5,6})</f>
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>28</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1550,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA40A4A2-5107-4D68-82F7-ED3A026131E5}">
           <x14:formula1>
-            <xm:f>Table!$A$2:$A$5</xm:f>
+            <xm:f>_xlfn.ANCHORARRAY(Table!D2)</xm:f>
           </x14:formula1>
           <xm:sqref>B33</xm:sqref>
         </x14:dataValidation>
@@ -1436,15 +1562,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F8ABA5-056A-40DE-85DB-DC7503169117}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,44 +1578,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" t="str" cm="1">
+        <f t="array" ref="D2:D6">Table1[Name]</f>
+        <v>Bob</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
         <v>700000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <v>Alice</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4">
         <v>800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <v>Kendrick</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <v>Peter</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>100000</v>
+        <v>10000000</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve">Gabby </v>
       </c>
     </row>
   </sheetData>
@@ -1508,11 +1650,11 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1521,9 +1663,9 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1532,18 +1674,18 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>518</v>
       </c>
@@ -1575,7 +1717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>156</v>
       </c>
@@ -1607,7 +1749,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>253</v>
       </c>
@@ -1639,7 +1781,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>955</v>
       </c>
@@ -1671,7 +1813,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>723</v>
       </c>
@@ -1703,7 +1845,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>281</v>
       </c>
@@ -1735,7 +1877,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>347</v>
       </c>
@@ -1767,7 +1909,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>661</v>
       </c>
@@ -1799,7 +1941,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>590</v>
       </c>
@@ -1831,7 +1973,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>654</v>
       </c>
@@ -1863,9 +2005,9 @@
         <v>879</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1874,18 +2016,18 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>675</v>
       </c>
@@ -1914,7 +2056,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>718</v>
       </c>
@@ -1943,7 +2085,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>930</v>
       </c>
@@ -1972,7 +2114,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>404</v>
       </c>
@@ -2001,7 +2143,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>967</v>
       </c>
@@ -2030,7 +2172,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>448</v>
       </c>
@@ -2059,7 +2201,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>928</v>
       </c>
@@ -2088,7 +2230,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>169</v>
       </c>
@@ -2117,7 +2259,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>916</v>
       </c>
@@ -2146,7 +2288,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>559</v>
       </c>
@@ -2175,9 +2317,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2186,58 +2328,58 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -2259,11 +2401,11 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2272,9 +2414,9 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2283,18 +2425,18 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>518</v>
       </c>
@@ -2326,7 +2468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>156</v>
       </c>
@@ -2358,7 +2500,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>253</v>
       </c>
@@ -2390,7 +2532,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>955</v>
       </c>
@@ -2422,7 +2564,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>723</v>
       </c>
@@ -2454,7 +2596,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>281</v>
       </c>
@@ -2486,7 +2628,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>347</v>
       </c>
@@ -2518,7 +2660,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>661</v>
       </c>
@@ -2550,7 +2692,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>590</v>
       </c>
@@ -2582,7 +2724,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>654</v>
       </c>
@@ -2614,9 +2756,9 @@
         <v>879</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2625,14 +2767,14 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B24)</f>
         <v>=OFFSET(D11;1;3;6;4)</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24:E29" ca="1">OFFSET(D11,1,3,6,4)</f>
         <v>168</v>
@@ -2650,7 +2792,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25">
         <f ca="1"/>
         <v>816</v>
@@ -2668,7 +2810,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26">
         <f ca="1"/>
         <v>757</v>
@@ -2686,7 +2828,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27">
         <f ca="1"/>
         <v>150</v>
@@ -2704,7 +2846,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28">
         <f ca="1"/>
         <v>222</v>
@@ -2722,7 +2864,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29">
         <f ca="1"/>
         <v>803</v>
@@ -2740,18 +2882,18 @@
         <v>857</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B32)</f>
         <v>=INDEX(D11:K18;SEQUENCE(6;;2);SEQUENCE(;4;4))</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" cm="1">
         <f t="array" ref="B32:E37">INDEX(D11:K18,_xlfn.SEQUENCE(6,,2),_xlfn.SEQUENCE(,4,4))</f>
         <v>168</v>
@@ -2766,7 +2908,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>816</v>
       </c>
@@ -2780,7 +2922,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>757</v>
       </c>
@@ -2794,7 +2936,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>150</v>
       </c>
@@ -2808,7 +2950,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>222</v>
       </c>
@@ -2822,7 +2964,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>803</v>
       </c>
@@ -2836,9 +2978,9 @@
         <v>857</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2847,20 +2989,20 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2869,8 +3011,8 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>675</v>
       </c>
@@ -2899,7 +3041,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>718</v>
       </c>
@@ -2928,7 +3070,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>930</v>
       </c>
@@ -2957,7 +3099,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>404</v>
       </c>
@@ -2986,7 +3128,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>967</v>
       </c>
@@ -3015,7 +3157,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>448</v>
       </c>
@@ -3044,7 +3186,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>928</v>
       </c>
@@ -3073,7 +3215,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>169</v>
       </c>
@@ -3102,7 +3244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>916</v>
       </c>
@@ -3131,7 +3273,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>559</v>
       </c>
@@ -3160,13 +3302,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B59)</f>
         <v>=INDEX(C49:J56;{1;2;5;7};{4\5\6\7})</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" cm="1">
         <f t="array" ref="B59:E62">INDEX(C49:J56,{1;2;5;7},{4,5,6,7})</f>
         <v>496</v>
@@ -3181,7 +3323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>268</v>
       </c>
@@ -3195,7 +3337,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>255</v>
       </c>
@@ -3209,7 +3351,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>315</v>
       </c>
@@ -3223,9 +3365,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -3234,20 +3376,20 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B69" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -3256,63 +3398,63 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="15.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" t="s">
         <v>46</v>
       </c>
-      <c r="C71" t="s">
-        <v>47</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F72">
         <f>_xlfn.XLOOKUP(E72,Products[Product],Products[Cost])</f>
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -3337,9 +3479,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1">
         <f>SUM(,)</f>
         <v>0</v>
@@ -3361,12 +3503,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>37653</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
         <v>kr 1</v>
